--- a/po_analysis_by_asin/B083RVN2VG_po_data.xlsx
+++ b/po_analysis_by_asin/B083RVN2VG_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,39 +452,39 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45172.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>420</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45306</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>240</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45327</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45334</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45341</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>90</v>
@@ -492,169 +492,265 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45348</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>810</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45369</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>10</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45390</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45397</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45404</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45411</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45418</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>60</v>
+        <v>350</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45425</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>160</v>
+        <v>420</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45439</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>40</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45446</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45495</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>500</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45502</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>160</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45509</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>60</v>
+        <v>810</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45516</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45523</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>460</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45551</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45572</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>320</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45579</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>220</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45586</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>180</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45593</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45635</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B27" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B39" t="n">
         <v>360</v>
       </c>
     </row>
@@ -669,7 +765,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -691,89 +787,121 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>660</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>1080</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>430</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>160</v>
+        <v>590</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45322.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>320</v>
+        <v>660</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45444</v>
+        <v>45351.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>40</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45474</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>660</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45505</v>
+        <v>45412.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>640</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45536</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>240</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45566</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>820</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45627</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B12" t="n">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45657.99999999999</v>
+      </c>
+      <c r="B16" t="n">
         <v>360</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B083RVN2VG_po_data.xlsx
+++ b/po_analysis_by_asin/B083RVN2VG_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -781,7 +782,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -903,6 +904,691 @@
       </c>
       <c r="B16" t="n">
         <v>360</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>110</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-87.00597192098942</v>
+      </c>
+      <c r="D2" t="n">
+        <v>336.3399641993224</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>112</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-85.30664452171061</v>
+      </c>
+      <c r="D3" t="n">
+        <v>316.8940940530652</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>114</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-102.6498713576774</v>
+      </c>
+      <c r="D4" t="n">
+        <v>304.4735730352526</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>118</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-83.87881389937914</v>
+      </c>
+      <c r="D5" t="n">
+        <v>314.1242682937138</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>119</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-75.32888129781993</v>
+      </c>
+      <c r="D6" t="n">
+        <v>334.2648668910668</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>121</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-96.82167354694522</v>
+      </c>
+      <c r="D7" t="n">
+        <v>327.9605789595081</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>123</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-84.72169157018998</v>
+      </c>
+      <c r="D8" t="n">
+        <v>315.8010178017082</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>125</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-66.78636098768818</v>
+      </c>
+      <c r="D9" t="n">
+        <v>337.6486761917193</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>129</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-68.35876519604658</v>
+      </c>
+      <c r="D10" t="n">
+        <v>333.1527994082277</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>131</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-70.431826289135</v>
+      </c>
+      <c r="D11" t="n">
+        <v>349.7222557071648</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>133</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-82.29160817212585</v>
+      </c>
+      <c r="D12" t="n">
+        <v>328.0611031545547</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>135</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-65.9664887213377</v>
+      </c>
+      <c r="D13" t="n">
+        <v>346.4153779000004</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>145</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-60.73439032213153</v>
+      </c>
+      <c r="D14" t="n">
+        <v>354.8442395410246</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>148</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-62.4542711586262</v>
+      </c>
+      <c r="D15" t="n">
+        <v>349.6946127088023</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>154</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-50.77348457682366</v>
+      </c>
+      <c r="D16" t="n">
+        <v>367.1299307370362</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>156</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-43.08534283399006</v>
+      </c>
+      <c r="D17" t="n">
+        <v>368.679460430803</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>158</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-41.75375148854484</v>
+      </c>
+      <c r="D18" t="n">
+        <v>365.203815069939</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>160</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-41.47148752118873</v>
+      </c>
+      <c r="D19" t="n">
+        <v>376.6894389833689</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>166</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-35.77306484644606</v>
+      </c>
+      <c r="D20" t="n">
+        <v>372.7805506937665</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>172</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-41.40187525682166</v>
+      </c>
+      <c r="D21" t="n">
+        <v>379.7138185683627</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>174</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-37.48409680158849</v>
+      </c>
+      <c r="D22" t="n">
+        <v>370.6771232189626</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>175</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-33.52678067537869</v>
+      </c>
+      <c r="D23" t="n">
+        <v>386.0167175826879</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>177</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-40.22724801639843</v>
+      </c>
+      <c r="D24" t="n">
+        <v>389.2227467309363</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>179</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-15.89653875288731</v>
+      </c>
+      <c r="D25" t="n">
+        <v>390.3284586593616</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>181</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-15.8114382455161</v>
+      </c>
+      <c r="D26" t="n">
+        <v>386.9331808825547</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>185</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-14.19403495873571</v>
+      </c>
+      <c r="D27" t="n">
+        <v>383.4323209786514</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>187</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-31.19570163551963</v>
+      </c>
+      <c r="D28" t="n">
+        <v>385.5816976350756</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>201</v>
+      </c>
+      <c r="C29" t="n">
+        <v>6.110440775098745</v>
+      </c>
+      <c r="D29" t="n">
+        <v>408.2802252504969</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>203</v>
+      </c>
+      <c r="C30" t="n">
+        <v>12.29176367684655</v>
+      </c>
+      <c r="D30" t="n">
+        <v>399.7282938012293</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>204</v>
+      </c>
+      <c r="C31" t="n">
+        <v>11.2080838655321</v>
+      </c>
+      <c r="D31" t="n">
+        <v>427.8943998963074</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>206</v>
+      </c>
+      <c r="C32" t="n">
+        <v>5.872529928779913</v>
+      </c>
+      <c r="D32" t="n">
+        <v>420.1494496798093</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>208</v>
+      </c>
+      <c r="C33" t="n">
+        <v>14.82391323705306</v>
+      </c>
+      <c r="D33" t="n">
+        <v>420.2396645204598</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>216</v>
+      </c>
+      <c r="C34" t="n">
+        <v>7.933591528295727</v>
+      </c>
+      <c r="D34" t="n">
+        <v>411.3760033277171</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>222</v>
+      </c>
+      <c r="C35" t="n">
+        <v>12.60622419592377</v>
+      </c>
+      <c r="D35" t="n">
+        <v>436.8882725338094</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>224</v>
+      </c>
+      <c r="C36" t="n">
+        <v>13.90292832834669</v>
+      </c>
+      <c r="D36" t="n">
+        <v>430.2635849793872</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>226</v>
+      </c>
+      <c r="C37" t="n">
+        <v>10.34800177920913</v>
+      </c>
+      <c r="D37" t="n">
+        <v>446.5690149659062</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>228</v>
+      </c>
+      <c r="C38" t="n">
+        <v>13.80651517690695</v>
+      </c>
+      <c r="D38" t="n">
+        <v>435.0111690111014</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>239</v>
+      </c>
+      <c r="C39" t="n">
+        <v>33.98525882652864</v>
+      </c>
+      <c r="D39" t="n">
+        <v>438.6562434605662</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>241</v>
+      </c>
+      <c r="C40" t="n">
+        <v>35.73218350605679</v>
+      </c>
+      <c r="D40" t="n">
+        <v>448.4919077354782</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>243</v>
+      </c>
+      <c r="C41" t="n">
+        <v>42.95045864317697</v>
+      </c>
+      <c r="D41" t="n">
+        <v>451.0183937701397</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>245</v>
+      </c>
+      <c r="C42" t="n">
+        <v>39.97670994319832</v>
+      </c>
+      <c r="D42" t="n">
+        <v>448.0998433327757</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>247</v>
+      </c>
+      <c r="C43" t="n">
+        <v>62.91546732639416</v>
+      </c>
+      <c r="D43" t="n">
+        <v>447.0041701985634</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>249</v>
+      </c>
+      <c r="C44" t="n">
+        <v>52.44084654148256</v>
+      </c>
+      <c r="D44" t="n">
+        <v>464.5502637848652</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45683.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>251</v>
+      </c>
+      <c r="C45" t="n">
+        <v>35.96527835852763</v>
+      </c>
+      <c r="D45" t="n">
+        <v>459.7511116693439</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45690.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>253</v>
+      </c>
+      <c r="C46" t="n">
+        <v>52.36115022904327</v>
+      </c>
+      <c r="D46" t="n">
+        <v>462.6180795606361</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45697.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>255</v>
+      </c>
+      <c r="C47" t="n">
+        <v>46.20842101402304</v>
+      </c>
+      <c r="D47" t="n">
+        <v>461.0817698926137</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B083RVN2VG_po_data.xlsx
+++ b/po_analysis_by_asin/B083RVN2VG_po_data.xlsx
@@ -917,7 +917,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -936,16 +936,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -954,12 +944,6 @@
       <c r="B2" t="n">
         <v>110</v>
       </c>
-      <c r="C2" t="n">
-        <v>-87.00597192098942</v>
-      </c>
-      <c r="D2" t="n">
-        <v>336.3399641993224</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -968,12 +952,6 @@
       <c r="B3" t="n">
         <v>112</v>
       </c>
-      <c r="C3" t="n">
-        <v>-85.30664452171061</v>
-      </c>
-      <c r="D3" t="n">
-        <v>316.8940940530652</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -982,12 +960,6 @@
       <c r="B4" t="n">
         <v>114</v>
       </c>
-      <c r="C4" t="n">
-        <v>-102.6498713576774</v>
-      </c>
-      <c r="D4" t="n">
-        <v>304.4735730352526</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -996,12 +968,6 @@
       <c r="B5" t="n">
         <v>118</v>
       </c>
-      <c r="C5" t="n">
-        <v>-83.87881389937914</v>
-      </c>
-      <c r="D5" t="n">
-        <v>314.1242682937138</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1010,12 +976,6 @@
       <c r="B6" t="n">
         <v>119</v>
       </c>
-      <c r="C6" t="n">
-        <v>-75.32888129781993</v>
-      </c>
-      <c r="D6" t="n">
-        <v>334.2648668910668</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1024,12 +984,6 @@
       <c r="B7" t="n">
         <v>121</v>
       </c>
-      <c r="C7" t="n">
-        <v>-96.82167354694522</v>
-      </c>
-      <c r="D7" t="n">
-        <v>327.9605789595081</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1038,12 +992,6 @@
       <c r="B8" t="n">
         <v>123</v>
       </c>
-      <c r="C8" t="n">
-        <v>-84.72169157018998</v>
-      </c>
-      <c r="D8" t="n">
-        <v>315.8010178017082</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1052,12 +1000,6 @@
       <c r="B9" t="n">
         <v>125</v>
       </c>
-      <c r="C9" t="n">
-        <v>-66.78636098768818</v>
-      </c>
-      <c r="D9" t="n">
-        <v>337.6486761917193</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1066,12 +1008,6 @@
       <c r="B10" t="n">
         <v>129</v>
       </c>
-      <c r="C10" t="n">
-        <v>-68.35876519604658</v>
-      </c>
-      <c r="D10" t="n">
-        <v>333.1527994082277</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1080,12 +1016,6 @@
       <c r="B11" t="n">
         <v>131</v>
       </c>
-      <c r="C11" t="n">
-        <v>-70.431826289135</v>
-      </c>
-      <c r="D11" t="n">
-        <v>349.7222557071648</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1094,12 +1024,6 @@
       <c r="B12" t="n">
         <v>133</v>
       </c>
-      <c r="C12" t="n">
-        <v>-82.29160817212585</v>
-      </c>
-      <c r="D12" t="n">
-        <v>328.0611031545547</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1108,12 +1032,6 @@
       <c r="B13" t="n">
         <v>135</v>
       </c>
-      <c r="C13" t="n">
-        <v>-65.9664887213377</v>
-      </c>
-      <c r="D13" t="n">
-        <v>346.4153779000004</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1122,12 +1040,6 @@
       <c r="B14" t="n">
         <v>145</v>
       </c>
-      <c r="C14" t="n">
-        <v>-60.73439032213153</v>
-      </c>
-      <c r="D14" t="n">
-        <v>354.8442395410246</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1136,12 +1048,6 @@
       <c r="B15" t="n">
         <v>148</v>
       </c>
-      <c r="C15" t="n">
-        <v>-62.4542711586262</v>
-      </c>
-      <c r="D15" t="n">
-        <v>349.6946127088023</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1150,12 +1056,6 @@
       <c r="B16" t="n">
         <v>154</v>
       </c>
-      <c r="C16" t="n">
-        <v>-50.77348457682366</v>
-      </c>
-      <c r="D16" t="n">
-        <v>367.1299307370362</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1164,12 +1064,6 @@
       <c r="B17" t="n">
         <v>156</v>
       </c>
-      <c r="C17" t="n">
-        <v>-43.08534283399006</v>
-      </c>
-      <c r="D17" t="n">
-        <v>368.679460430803</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1178,12 +1072,6 @@
       <c r="B18" t="n">
         <v>158</v>
       </c>
-      <c r="C18" t="n">
-        <v>-41.75375148854484</v>
-      </c>
-      <c r="D18" t="n">
-        <v>365.203815069939</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1192,12 +1080,6 @@
       <c r="B19" t="n">
         <v>160</v>
       </c>
-      <c r="C19" t="n">
-        <v>-41.47148752118873</v>
-      </c>
-      <c r="D19" t="n">
-        <v>376.6894389833689</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1206,12 +1088,6 @@
       <c r="B20" t="n">
         <v>166</v>
       </c>
-      <c r="C20" t="n">
-        <v>-35.77306484644606</v>
-      </c>
-      <c r="D20" t="n">
-        <v>372.7805506937665</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1220,12 +1096,6 @@
       <c r="B21" t="n">
         <v>172</v>
       </c>
-      <c r="C21" t="n">
-        <v>-41.40187525682166</v>
-      </c>
-      <c r="D21" t="n">
-        <v>379.7138185683627</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1234,12 +1104,6 @@
       <c r="B22" t="n">
         <v>174</v>
       </c>
-      <c r="C22" t="n">
-        <v>-37.48409680158849</v>
-      </c>
-      <c r="D22" t="n">
-        <v>370.6771232189626</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1248,12 +1112,6 @@
       <c r="B23" t="n">
         <v>175</v>
       </c>
-      <c r="C23" t="n">
-        <v>-33.52678067537869</v>
-      </c>
-      <c r="D23" t="n">
-        <v>386.0167175826879</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1262,12 +1120,6 @@
       <c r="B24" t="n">
         <v>177</v>
       </c>
-      <c r="C24" t="n">
-        <v>-40.22724801639843</v>
-      </c>
-      <c r="D24" t="n">
-        <v>389.2227467309363</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1276,12 +1128,6 @@
       <c r="B25" t="n">
         <v>179</v>
       </c>
-      <c r="C25" t="n">
-        <v>-15.89653875288731</v>
-      </c>
-      <c r="D25" t="n">
-        <v>390.3284586593616</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1290,12 +1136,6 @@
       <c r="B26" t="n">
         <v>181</v>
       </c>
-      <c r="C26" t="n">
-        <v>-15.8114382455161</v>
-      </c>
-      <c r="D26" t="n">
-        <v>386.9331808825547</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1304,12 +1144,6 @@
       <c r="B27" t="n">
         <v>185</v>
       </c>
-      <c r="C27" t="n">
-        <v>-14.19403495873571</v>
-      </c>
-      <c r="D27" t="n">
-        <v>383.4323209786514</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1318,12 +1152,6 @@
       <c r="B28" t="n">
         <v>187</v>
       </c>
-      <c r="C28" t="n">
-        <v>-31.19570163551963</v>
-      </c>
-      <c r="D28" t="n">
-        <v>385.5816976350756</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1332,12 +1160,6 @@
       <c r="B29" t="n">
         <v>201</v>
       </c>
-      <c r="C29" t="n">
-        <v>6.110440775098745</v>
-      </c>
-      <c r="D29" t="n">
-        <v>408.2802252504969</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1346,12 +1168,6 @@
       <c r="B30" t="n">
         <v>203</v>
       </c>
-      <c r="C30" t="n">
-        <v>12.29176367684655</v>
-      </c>
-      <c r="D30" t="n">
-        <v>399.7282938012293</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1360,12 +1176,6 @@
       <c r="B31" t="n">
         <v>204</v>
       </c>
-      <c r="C31" t="n">
-        <v>11.2080838655321</v>
-      </c>
-      <c r="D31" t="n">
-        <v>427.8943998963074</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1374,12 +1184,6 @@
       <c r="B32" t="n">
         <v>206</v>
       </c>
-      <c r="C32" t="n">
-        <v>5.872529928779913</v>
-      </c>
-      <c r="D32" t="n">
-        <v>420.1494496798093</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1388,12 +1192,6 @@
       <c r="B33" t="n">
         <v>208</v>
       </c>
-      <c r="C33" t="n">
-        <v>14.82391323705306</v>
-      </c>
-      <c r="D33" t="n">
-        <v>420.2396645204598</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1402,12 +1200,6 @@
       <c r="B34" t="n">
         <v>216</v>
       </c>
-      <c r="C34" t="n">
-        <v>7.933591528295727</v>
-      </c>
-      <c r="D34" t="n">
-        <v>411.3760033277171</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1416,12 +1208,6 @@
       <c r="B35" t="n">
         <v>222</v>
       </c>
-      <c r="C35" t="n">
-        <v>12.60622419592377</v>
-      </c>
-      <c r="D35" t="n">
-        <v>436.8882725338094</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1430,12 +1216,6 @@
       <c r="B36" t="n">
         <v>224</v>
       </c>
-      <c r="C36" t="n">
-        <v>13.90292832834669</v>
-      </c>
-      <c r="D36" t="n">
-        <v>430.2635849793872</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1444,12 +1224,6 @@
       <c r="B37" t="n">
         <v>226</v>
       </c>
-      <c r="C37" t="n">
-        <v>10.34800177920913</v>
-      </c>
-      <c r="D37" t="n">
-        <v>446.5690149659062</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1458,12 +1232,6 @@
       <c r="B38" t="n">
         <v>228</v>
       </c>
-      <c r="C38" t="n">
-        <v>13.80651517690695</v>
-      </c>
-      <c r="D38" t="n">
-        <v>435.0111690111014</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1472,12 +1240,6 @@
       <c r="B39" t="n">
         <v>239</v>
       </c>
-      <c r="C39" t="n">
-        <v>33.98525882652864</v>
-      </c>
-      <c r="D39" t="n">
-        <v>438.6562434605662</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1486,12 +1248,6 @@
       <c r="B40" t="n">
         <v>241</v>
       </c>
-      <c r="C40" t="n">
-        <v>35.73218350605679</v>
-      </c>
-      <c r="D40" t="n">
-        <v>448.4919077354782</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1500,12 +1256,6 @@
       <c r="B41" t="n">
         <v>243</v>
       </c>
-      <c r="C41" t="n">
-        <v>42.95045864317697</v>
-      </c>
-      <c r="D41" t="n">
-        <v>451.0183937701397</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1514,12 +1264,6 @@
       <c r="B42" t="n">
         <v>245</v>
       </c>
-      <c r="C42" t="n">
-        <v>39.97670994319832</v>
-      </c>
-      <c r="D42" t="n">
-        <v>448.0998433327757</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1528,12 +1272,6 @@
       <c r="B43" t="n">
         <v>247</v>
       </c>
-      <c r="C43" t="n">
-        <v>62.91546732639416</v>
-      </c>
-      <c r="D43" t="n">
-        <v>447.0041701985634</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1542,12 +1280,6 @@
       <c r="B44" t="n">
         <v>249</v>
       </c>
-      <c r="C44" t="n">
-        <v>52.44084654148256</v>
-      </c>
-      <c r="D44" t="n">
-        <v>464.5502637848652</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1556,12 +1288,6 @@
       <c r="B45" t="n">
         <v>251</v>
       </c>
-      <c r="C45" t="n">
-        <v>35.96527835852763</v>
-      </c>
-      <c r="D45" t="n">
-        <v>459.7511116693439</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1570,12 +1296,6 @@
       <c r="B46" t="n">
         <v>253</v>
       </c>
-      <c r="C46" t="n">
-        <v>52.36115022904327</v>
-      </c>
-      <c r="D46" t="n">
-        <v>462.6180795606361</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1583,12 +1303,6 @@
       </c>
       <c r="B47" t="n">
         <v>255</v>
-      </c>
-      <c r="C47" t="n">
-        <v>46.20842101402304</v>
-      </c>
-      <c r="D47" t="n">
-        <v>461.0817698926137</v>
       </c>
     </row>
   </sheetData>
